--- a/data/stocks/~index_ticker_list/europe/cac_40_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/cac_40_tickers.xlsx
@@ -722,56 +722,56 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ENGI.PA</t>
+          <t>EDEN.PA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Engie</t>
+          <t>Edenred</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Gas Utilities</t>
+          <t>Transaction Processing Services</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EL.PA</t>
+          <t>ENGI.PA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>EssilorLuxottica</t>
+          <t>Engie</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Gas Utilities</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ERF.PA</t>
+          <t>EL.PA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Eurofins Scientific</t>
+          <t>EssilorLuxottica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,41 +781,41 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Biotechnologies</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RMS.PA</t>
+          <t>ERF.PA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Hermès</t>
+          <t>Eurofins Scientific</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnologies</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KER.PA</t>
+          <t>RMS.PA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Kering</t>
+          <t>Hermès</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -832,210 +832,210 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OR.PA</t>
+          <t>KER.PA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>L'Oréal</t>
+          <t>Kering</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Personal Products</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LR.PA</t>
+          <t>OR.PA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Legrand</t>
+          <t>L'Oréal</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Personal Products</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MC.PA</t>
+          <t>LR.PA</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LVMH</t>
+          <t>Legrand</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ML.PA</t>
+          <t>MC.PA</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Michelin</t>
+          <t>LVMH</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Tires &amp; Rubber</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ORA.PA</t>
+          <t>ML.PA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Orange</t>
+          <t>Michelin</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Integrated Telecommunication Services</t>
+          <t>Tires &amp; Rubber</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RI.PA</t>
+          <t>ORA.PA</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Pernod Ricard</t>
+          <t>Orange</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Consumer Defensive</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Distillers &amp; Vintners</t>
+          <t>Integrated Telecommunication Services</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PUB.PA</t>
+          <t>RI.PA</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Publicis</t>
+          <t>Pernod Ricard</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Defensive</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Advertising</t>
+          <t>Distillers &amp; Vintners</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RNO.PA</t>
+          <t>PUB.PA</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Renault</t>
+          <t>Publicis</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Advertising</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SAF.PA</t>
+          <t>RNO.PA</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Safran</t>
+          <t>Renault</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SGO.PA</t>
+          <t>SAF.PA</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Saint-Gobain</t>
+          <t>Safran</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,239 +1045,239 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAN.PA</t>
+          <t>SGO.PA</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sanofi</t>
+          <t>Saint-Gobain</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Healthcare</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Building Products</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SU.PA</t>
+          <t>SAN.PA</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Schneider Electric</t>
+          <t>Sanofi</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GLE.PA</t>
+          <t>SU.PA</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Schneider Electric</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Financial Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>STLAP.PA</t>
+          <t>GLE.PA</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Stellantis</t>
+          <t>Société Générale</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Consumer Cyclical</t>
+          <t>Financial Services</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>STMPA.PA</t>
+          <t>STLAP.PA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>STMicroelectronics</t>
+          <t>Stellantis</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Technology</t>
+          <t>Consumer Cyclical</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TEP.PA</t>
+          <t>STMPA.PA</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Teleperformance</t>
+          <t>STMicroelectronics</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Technology</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Outsourcing</t>
+          <t>Semiconductors</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HO.PA</t>
+          <t>TEP.PA</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Thales</t>
+          <t>Teleperformance</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Outsourcing</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TTE.PA</t>
+          <t>HO.PA</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>TotalEnergies</t>
+          <t>Thales</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Integrated Oil &amp; Gas</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>URW.PA</t>
+          <t>TTE.PA</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Unibail-Rodamco-Westfield</t>
+          <t>TotalEnergies</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Integrated Oil &amp; Gas</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>VIE.PA</t>
+          <t>URW.PA</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Veolia</t>
+          <t>Unibail-Rodamco-Westfield</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Retail REITs</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DG.PA</t>
+          <t>VIE.PA</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Vinci</t>
+          <t>Veolia</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1287,29 +1287,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>VIV.PA</t>
+          <t>DG.PA</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vivendi</t>
+          <t>Vinci</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Construction &amp; Engineering</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/europe/cac_40_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/europe/cac_40_tickers.xlsx
@@ -551,7 +551,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AXA</t>
+          <t>Axa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
